--- a/biology/Botanique/Struthiola/Struthiola.xlsx
+++ b/biology/Botanique/Struthiola/Struthiola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Struthiola est un genre de plantes de la famille des Thymelaeaceae dont le port varie entre arbre, arbuste ou arbrisseau éricoïde.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il en existe une quarantaine d'espèces, principalement sud-africaines, présentes principalement dans le Cap occidental, environ 25 endémiques au fynbos, formation végétale caractéristique de l'Afrique du Sud. Leurs feuilles sont généralement opposées, mais parfois alternes.
-Leurs fleurs sont sessiles et généralement solitaires, mais parfois par paires à l'aisselle des feuilles supérieures. Chaque fleur est accompagnée de deux bractéoles ciliées. Le calice est à peu près cylindrique, avec quatre lobes réunis en un tube. Les lobes sont ovales à linéaires. Il y a quatre ou huit ou même douze pétales charnus et subtils (John Manning les appelle des écailles de pétales ou des écailles en forme de pétales[2]). Les pétales sont plus courts que les lobes du calice et sont entourés de poils courts. Quatre étamines sont attachés au fond du tube du calice. Les anthères sont subsessiles et linéaires, parfois avec un appendice apical. L'ovaire a un seul loge contenant un seul ovule glabre. Le style est latéral, avec un stigmate unique, généralement muni de poils courts.
+Leurs fleurs sont sessiles et généralement solitaires, mais parfois par paires à l'aisselle des feuilles supérieures. Chaque fleur est accompagnée de deux bractéoles ciliées. Le calice est à peu près cylindrique, avec quatre lobes réunis en un tube. Les lobes sont ovales à linéaires. Il y a quatre ou huit ou même douze pétales charnus et subtils (John Manning les appelle des écailles de pétales ou des écailles en forme de pétales). Les pétales sont plus courts que les lobes du calice et sont entourés de poils courts. Quatre étamines sont attachés au fond du tube du calice. Les anthères sont subsessiles et linéaires, parfois avec un appendice apical. L'ovaire a un seul loge contenant un seul ovule glabre. Le style est latéral, avec un stigmate unique, généralement muni de poils courts.
 Le fruit est petit, typiquement 1–3 mm, sec, inclus dans la base persistante du calice tubulaire.
 </t>
         </is>
@@ -544,10 +558,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La structure du fruit dans son calice résiduel a été assimilée au bec d'un moineau et a donné lieu au nom Struthiola, du latin strutheus (moineau)[3] ou strouthos (tout petit oiseau)[4].
-Comme souvent, pour ces plantes discrètes, les noms communs ne sont ni très utiles, ni cohérents. Le nom « stroop bossie » (« buisson de sirop ») est localement appliqué à Struthiola ciliata[2], suggérant que les enfants ruraux auraient pu essayer d'en sucer les fleurs, mais de telles explications sont nécessairement spéculatives. Plusieurs espèces sont appelées en utilisant le suffixe anglais « gonna » (« va »)[5] : par exemple « soetgonna » (signifiant « sweet gonna », « doux va »), pour Struthiola dodecandra), ou « aandgonna » (« evening gonna », « soirée va »), pour Struthiola argentea. « Gonna », cependant, est également appliqué de diverses manières au genre Passerina et à certains autres genres de Thymelaeaceae, tels que Dais. Il en va de même pour d'autres variantes telles que « ganna », mais comme ces appellations sont informelles et locales, on ne peut être certain des limites exactes de leur application[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La structure du fruit dans son calice résiduel a été assimilée au bec d'un moineau et a donné lieu au nom Struthiola, du latin strutheus (moineau) ou strouthos (tout petit oiseau).
+Comme souvent, pour ces plantes discrètes, les noms communs ne sont ni très utiles, ni cohérents. Le nom « stroop bossie » (« buisson de sirop ») est localement appliqué à Struthiola ciliata, suggérant que les enfants ruraux auraient pu essayer d'en sucer les fleurs, mais de telles explications sont nécessairement spéculatives. Plusieurs espèces sont appelées en utilisant le suffixe anglais « gonna » (« va ») : par exemple « soetgonna » (signifiant « sweet gonna », « doux va »), pour Struthiola dodecandra), ou « aandgonna » (« evening gonna », « soirée va »), pour Struthiola argentea. « Gonna », cependant, est également appliqué de diverses manières au genre Passerina et à certains autres genres de Thymelaeaceae, tels que Dais. Il en va de même pour d'autres variantes telles que « ganna », mais comme ces appellations sont informelles et locales, on ne peut être certain des limites exactes de leur application.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Intérêt horticole</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de Struthiola ne sont pas des plantes spectaculaires ; avec leur port éricoïde clairsemé, elles sont typiques des broussailles dites fynbos. Ces broussailles sont très attractives de par les détails subtils de leurs fleurs et de leur structure.
 Curieusement, malgré leur apparence modeste, elles ont progressivement été populaires comme plantes de jardin, en particulier chez les collectionneurs, peut-être à cause de leur parfum nocturne délicat et inattendu. Certaines espèces, telles que Struthiola myrsinites, fleurissent de manière assez spectaculaire ; celles d'espèces plus petites peut passer inaperçu le jour, alors qu'un seul de ses plants est capable de parfumer un porche par une nuit calme et chaude. Cette fragrance nocturne explique le fait que leurs fleurs étroites sont pollinisées par de petits papillons de nuit munis de fins proboscis.
@@ -608,9 +626,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (12 août 2020)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (12 août 2020) :
 Struthiola angustiloba Peterson &amp; O. M. Hilliard
 Struthiola anomala O. M. Hilliard
 Struthiola argentea Lehm.
@@ -644,7 +664,7 @@
 Struthiola thomsonii Oliver
 Struthiola tomentosa Andr.
 Struthiola tuberculosa Lam.
-Selon The Plant List            (12 août 2020)[7] :
+Selon The Plant List            (12 août 2020) :
 Struthiola angustiloba B. Peterson &amp; Hilliard
 Struthiola anomala Hilliard
 Struthiola argentea Lehm.
@@ -680,7 +700,7 @@
 Struthiola thomsonii Oliv.
 Struthiola tomentosa Andrews
 Struthiola tuberculosa Lam.
-Selon Tropicos                                           (12 août 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (12 août 2020) (Attention liste brute contenant possiblement des synonymes) :
 Struthiola albersii H. Pearson
 Struthiola amabilis Gilg
 Struthiola angustifolia Lam.
